--- a/src/main/resources/template/static/excel/模板-职位.xlsx
+++ b/src/main/resources/template/static/excel/模板-职位.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>职位名称</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>1、具有较强的学习能力、沟通能力，思路清晰，有责任意识、抗压能力强、积极热情、吃苦耐劳与团队合作精神；2、具有良好而规范的编程习惯和技术文档编写习惯。</t>
+  </si>
+  <si>
+    <t>2013-01-03</t>
   </si>
   <si>
     <t>15k/月</t>
@@ -91,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -130,7 +133,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -139,63 +215,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -205,7 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,63 +260,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,49 +299,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,133 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +508,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,6 +528,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,17 +561,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,37 +597,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,152 +610,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,9 +788,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1127,7 +1127,7 @@
     <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="154.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.375" customWidth="1"/>
   </cols>
@@ -1160,7 +1160,7 @@
       <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -1198,14 +1198,14 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="11">
-        <v>44269</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="7:7">
